--- a/Documentation/Diverse statistikker.xlsx
+++ b/Documentation/Diverse statistikker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\1993m\Documents\GitHub\Pak128.Nordic\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B45C4-37C4-4AC1-AA15-C319FAE849FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C3F46-3165-4047-A9ED-82786497E5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{49858BB8-57EF-414F-AF35-144E0D53F545}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49858BB8-57EF-414F-AF35-144E0D53F545}"/>
   </bookViews>
   <sheets>
     <sheet name="Lønstatistik" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$kr.-406]_-;\-* #,##0.00\ [$kr.-406]_-;_-* &quot;-&quot;??\ [$kr.-406]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$kr.-406]_-;\-* #,##0.00\ [$kr.-406]_-;_-* &quot;-&quot;??\ [$kr.-406]_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -323,11 +323,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,6 +627,50 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="6296904" cy="5268060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>172431</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>39040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Billede 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A3360F-3AD7-6017-5CCB-A1E8C5EA9892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="0"/>
+          <a:ext cx="7030431" cy="6735115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C630929-F0FA-438A-9F93-1C4904CEC9A6}">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
@@ -4298,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083A34CE-4F7A-4BF6-95EE-43EE85187EF0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
